--- a/biology/Botanique/Parc_Xujiahui/Parc_Xujiahui.xlsx
+++ b/biology/Botanique/Parc_Xujiahui/Parc_Xujiahui.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc Xujiahui (chinois simplifié : 徐家汇公园 ; chinois traditionnel : 徐家匯公園 ; pinyin : Xújiāhuì gōngyuán) est un parc du district de Xuhui, à Shanghai. Il a été construit en 1999 sur l'ancien terrain de l'entreprise Great Chinese Rubber Works Factory et du studio d'enregistrement EMI (à cet emplacement il y a aujourd'hui le restaurant La Villa Rouge) [1]. Le parc possède un lac artificiel.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc Xujiahui (chinois simplifié : 徐家汇公园 ; chinois traditionnel : 徐家匯公園 ; pinyin : Xújiāhuì gōngyuán) est un parc du district de Xuhui, à Shanghai. Il a été construit en 1999 sur l'ancien terrain de l'entreprise Great Chinese Rubber Works Factory et du studio d'enregistrement EMI (à cet emplacement il y a aujourd'hui le restaurant La Villa Rouge) . Le parc possède un lac artificiel.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Adresse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>889 Zhaojiabang Lu, à côté de Tianping Lu (徐家汇公园 肇嘉浜路889号, 近天平路)
 Station de métro ligne 1 Xujiahui</t>
